--- a/doc/测试数据.xlsx
+++ b/doc/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="10470"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="10470" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="t_user" sheetId="18" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="t_college" sheetId="9" r:id="rId10"/>
     <sheet name="t_classroom" sheetId="8" r:id="rId11"/>
     <sheet name="t_auto_sign_in_table_list" sheetId="7" r:id="rId12"/>
-    <sheet name="sign_in_30003_20180603" sheetId="6" r:id="rId13"/>
+    <sheet name="sign_in_30002_20180609" sheetId="6" r:id="rId13"/>
     <sheet name="course_30003_student_list" sheetId="5" r:id="rId14"/>
     <sheet name="course_30002_student_list" sheetId="4" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId16"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
   <si>
     <t>studentId</t>
   </si>
@@ -111,7 +111,7 @@
     <t>createDate</t>
   </si>
   <si>
-    <t>sign_in_30003_20180603</t>
+    <t>sign_in_30002_20180609</t>
   </si>
   <si>
     <t>name</t>
@@ -300,13 +300,10 @@
     <t>李震宇</t>
   </si>
   <si>
-    <t>root123456</t>
-  </si>
-  <si>
     <t>男</t>
   </si>
   <si>
-    <t>810772273@qq.com</t>
+    <t>admin</t>
   </si>
   <si>
     <t>邓文路</t>
@@ -330,7 +327,7 @@
     <t>129@qq.com</t>
   </si>
   <si>
-    <t>130@qq.com</t>
+    <t>student</t>
   </si>
   <si>
     <t>134@qq.com</t>
@@ -357,7 +354,7 @@
     <t>标哥</t>
   </si>
   <si>
-    <t>60003@qq.com</t>
+    <t>teacher</t>
   </si>
 </sst>
 </file>
@@ -712,7 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -722,7 +721,7 @@
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
@@ -767,11 +766,11 @@
       <c r="B2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -780,7 +779,7 @@
         <v>13235905890</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="3">
         <v>43240</v>
@@ -794,13 +793,13 @@
         <v>170327019</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -809,7 +808,7 @@
         <v>13233333333</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="3">
         <v>43240</v>
@@ -832,7 +831,7 @@
         <v>123456</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -841,7 +840,7 @@
         <v>13233333334</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="3">
         <v>43240</v>
@@ -864,7 +863,7 @@
         <v>123456</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -873,7 +872,7 @@
         <v>13233333335</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="3">
         <v>43240</v>
@@ -896,7 +895,7 @@
         <v>123456</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -905,7 +904,7 @@
         <v>13233333336</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="3">
         <v>43240</v>
@@ -928,7 +927,7 @@
         <v>123456</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -937,7 +936,7 @@
         <v>13233333337</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="3">
         <v>43240</v>
@@ -960,7 +959,7 @@
         <v>123456</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -969,7 +968,7 @@
         <v>13233333338</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="3">
         <v>43240</v>
@@ -992,7 +991,7 @@
         <v>123456</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1001,7 +1000,7 @@
         <v>13233333339</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="3">
         <v>43240</v>
@@ -1024,7 +1023,7 @@
         <v>123456</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,7 +1032,7 @@
         <v>13233333340</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>43240</v>
@@ -1056,7 +1055,7 @@
         <v>123456</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1065,7 +1064,7 @@
         <v>13233333341</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="3">
         <v>43240</v>
@@ -1082,13 +1081,13 @@
         <v>386000001</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>12345678</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1097,7 +1096,7 @@
         <v>13400000001</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="3">
         <v>43240</v>
@@ -1114,13 +1113,13 @@
         <v>386000002</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>12345678</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1129,7 +1128,7 @@
         <v>13400000002</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="3">
         <v>43240</v>
@@ -1146,13 +1145,13 @@
         <v>386000003</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14">
-        <v>12345678</v>
+        <v>123456</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1161,7 +1160,7 @@
         <v>13400000003</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="3">
         <v>43240</v>
@@ -1183,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -1418,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -1444,16 +1443,16 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1">
       <c r="A2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="D2" s="3">
-        <v>43254</v>
+        <v>43260</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1474,7 @@
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
@@ -1503,7 +1502,7 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2">
-        <v>170327024</v>
+        <v>170327020</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -1514,11 +1513,11 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="2">
         <v>25569.333333333332</v>
@@ -1526,30 +1525,30 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3">
-        <v>170327025</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>170327021</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>43254.641388888886</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1">
       <c r="A4">
-        <v>170327026</v>
+        <v>170327022</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1572,7 +1571,7 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
       <c r="A5">
-        <v>170327027</v>
+        <v>170327023</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1583,8 +1582,8 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1659,8 +1658,8 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -1702,8 +1701,8 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1824,8 +1823,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -1867,8 +1866,8 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>

--- a/doc/测试数据.xlsx
+++ b/doc/测试数据.xlsx
@@ -4,34 +4,37 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="10470" tabRatio="751"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="10470"/>
   </bookViews>
   <sheets>
-    <sheet name="t_user" sheetId="18" r:id="rId1"/>
-    <sheet name="t_teacher" sheetId="17" r:id="rId2"/>
-    <sheet name="t_student" sheetId="16" r:id="rId3"/>
-    <sheet name="t_rolepermission" sheetId="15" r:id="rId4"/>
-    <sheet name="t_role" sheetId="14" r:id="rId5"/>
-    <sheet name="t_permission" sheetId="13" r:id="rId6"/>
-    <sheet name="t_major" sheetId="12" r:id="rId7"/>
-    <sheet name="t_elecourse" sheetId="11" r:id="rId8"/>
-    <sheet name="t_course" sheetId="10" r:id="rId9"/>
-    <sheet name="t_college" sheetId="9" r:id="rId10"/>
-    <sheet name="t_classroom" sheetId="8" r:id="rId11"/>
-    <sheet name="t_auto_sign_in_table_list" sheetId="7" r:id="rId12"/>
-    <sheet name="sign_in_30002_20180609" sheetId="6" r:id="rId13"/>
-    <sheet name="course_30003_student_list" sheetId="5" r:id="rId14"/>
-    <sheet name="course_30002_student_list" sheetId="4" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId17"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId18"/>
+    <sheet name="t_user" sheetId="21" r:id="rId1"/>
+    <sheet name="t_teacher" sheetId="20" r:id="rId2"/>
+    <sheet name="t_student" sheetId="19" r:id="rId3"/>
+    <sheet name="t_rolepermission" sheetId="18" r:id="rId4"/>
+    <sheet name="t_role" sheetId="17" r:id="rId5"/>
+    <sheet name="t_permission" sheetId="16" r:id="rId6"/>
+    <sheet name="t_major" sheetId="15" r:id="rId7"/>
+    <sheet name="t_elecourse" sheetId="14" r:id="rId8"/>
+    <sheet name="t_course" sheetId="13" r:id="rId9"/>
+    <sheet name="t_college" sheetId="12" r:id="rId10"/>
+    <sheet name="t_classroom" sheetId="11" r:id="rId11"/>
+    <sheet name="t_auto_sign_in_table_list" sheetId="10" r:id="rId12"/>
+    <sheet name="sign_in_30003_20180616" sheetId="9" r:id="rId13"/>
+    <sheet name="sign_in_30003_20180613" sheetId="8" r:id="rId14"/>
+    <sheet name="sign_in_30003_20180612" sheetId="7" r:id="rId15"/>
+    <sheet name="sign_in_30002_20180609" sheetId="6" r:id="rId16"/>
+    <sheet name="course_30003_student_list" sheetId="5" r:id="rId17"/>
+    <sheet name="course_30002_student_list" sheetId="4" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId19"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId20"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="111">
   <si>
     <t>studentId</t>
   </si>
@@ -112,6 +115,15 @@
   </si>
   <si>
     <t>sign_in_30002_20180609</t>
+  </si>
+  <si>
+    <t>sign_in_30003_20180612</t>
+  </si>
+  <si>
+    <t>sign_in_30003_20180613</t>
+  </si>
+  <si>
+    <t>sign_in_30003_20180616</t>
   </si>
   <si>
     <t>name</t>
@@ -709,15 +721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
@@ -732,31 +742,31 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
@@ -764,13 +774,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -779,7 +789,7 @@
         <v>13235905890</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H2" s="3">
         <v>43240</v>
@@ -793,13 +803,13 @@
         <v>170327019</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -808,7 +818,7 @@
         <v>13233333333</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3">
         <v>43240</v>
@@ -831,7 +841,7 @@
         <v>123456</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -840,7 +850,7 @@
         <v>13233333334</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H4" s="3">
         <v>43240</v>
@@ -863,7 +873,7 @@
         <v>123456</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -872,7 +882,7 @@
         <v>13233333335</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H5" s="3">
         <v>43240</v>
@@ -895,7 +905,7 @@
         <v>123456</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -904,7 +914,7 @@
         <v>13233333336</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H6" s="3">
         <v>43240</v>
@@ -927,7 +937,7 @@
         <v>123456</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -936,7 +946,7 @@
         <v>13233333337</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H7" s="3">
         <v>43240</v>
@@ -959,7 +969,7 @@
         <v>123456</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -968,7 +978,7 @@
         <v>13233333338</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H8" s="3">
         <v>43240</v>
@@ -991,7 +1001,7 @@
         <v>123456</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1000,7 +1010,7 @@
         <v>13233333339</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H9" s="3">
         <v>43240</v>
@@ -1023,7 +1033,7 @@
         <v>123456</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1032,7 +1042,7 @@
         <v>13233333340</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H10" s="3">
         <v>43240</v>
@@ -1055,7 +1065,7 @@
         <v>123456</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1064,7 +1074,7 @@
         <v>13233333341</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H11" s="3">
         <v>43240</v>
@@ -1081,13 +1091,13 @@
         <v>386000001</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>12345678</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1096,7 +1106,7 @@
         <v>13400000001</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H12" s="3">
         <v>43240</v>
@@ -1113,13 +1123,13 @@
         <v>386000002</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>12345678</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1128,7 +1138,7 @@
         <v>13400000002</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H13" s="3">
         <v>43240</v>
@@ -1145,13 +1155,13 @@
         <v>386000003</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>123456</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1160,7 +1170,7 @@
         <v>13400000003</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H14" s="3">
         <v>43240</v>
@@ -1182,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -1196,13 +1206,13 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1">
@@ -1210,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1326</v>
@@ -1224,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2403</v>
@@ -1238,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>1700</v>
@@ -1252,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>2385</v>
@@ -1266,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>2200</v>
@@ -1300,13 +1310,13 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1">
@@ -1314,7 +1324,7 @@
         <v>930001</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1328,7 +1338,7 @@
         <v>930002</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1342,7 +1352,7 @@
         <v>930003</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1356,7 +1366,7 @@
         <v>930004</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1370,7 +1380,7 @@
         <v>930005</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1384,7 +1394,7 @@
         <v>930006</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1398,7 +1408,7 @@
         <v>930007</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1415,9 +1425,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -1453,6 +1463,48 @@
       </c>
       <c r="D2" s="3">
         <v>43260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>30003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>30003</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>30003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43267</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1526,7 @@
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
@@ -1502,94 +1554,94 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2">
-        <v>170327020</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>170327024</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>25569.333333333332</v>
+        <v>43267.803020833337</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3">
-        <v>170327021</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>170327025</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="2">
-        <v>25569.333333333332</v>
+        <v>43267.803171296298</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1">
       <c r="A4">
-        <v>170327022</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>170327026</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2">
-        <v>25569.333333333332</v>
+        <v>43267.803263888891</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
       <c r="A5">
-        <v>170327023</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>170327027</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>25569.333333333332</v>
+        <v>43267.803472222222</v>
       </c>
     </row>
   </sheetData>
@@ -1599,6 +1651,417 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A2">
+        <v>170327024</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25569.333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A3">
+        <v>170327025</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43264.828229166669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A4">
+        <v>170327026</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>25569.333333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A5">
+        <v>170327027</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25569.333333333332</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A2">
+        <v>170327024</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25569.333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A3">
+        <v>170327025</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43263.828773148147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A4">
+        <v>170327026</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>25569.333333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A5">
+        <v>170327027</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25569.333333333332</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A2">
+        <v>170327020</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25569.333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A3">
+        <v>170327021</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>25569.333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A4">
+        <v>170327022</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43260.876689814817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A5">
+        <v>170327023</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25569.333333333332</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1740,7 +2203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1797,8 +2260,8 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -1882,33 +2345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1938,10 +2375,10 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
@@ -1952,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
@@ -1963,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
@@ -1974,10 +2411,36 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2003,19 +2466,19 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -2223,13 +2686,13 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2718,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1">
@@ -2263,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1">
@@ -2271,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" customHeight="1">
@@ -2279,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2310,25 +2773,25 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2355,10 +2818,10 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
@@ -2366,7 +2829,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2377,7 +2840,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2419,7 +2882,7 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>170327021</v>
@@ -2433,7 +2896,7 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>170327020</v>
@@ -2447,7 +2910,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>170327022</v>
@@ -2461,7 +2924,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>170327025</v>
@@ -2475,7 +2938,7 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>170327024</v>
@@ -2489,7 +2952,7 @@
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>170327023</v>
@@ -2503,7 +2966,7 @@
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>170327026</v>
@@ -2517,7 +2980,7 @@
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>170327027</v>
@@ -2559,28 +3022,28 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
@@ -2588,7 +3051,7 @@
         <v>30001</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -2617,7 +3080,7 @@
         <v>30002</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>90</v>
@@ -2646,7 +3109,7 @@
         <v>30003</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>60</v>
